--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -79,48 +73,48 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -130,36 +124,36 @@
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -545,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.702054794520548</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8787878787878788</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -764,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3892617449664429</v>
+        <v>0.374031007751938</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8515625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3604651162790697</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C7">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3246753246753247</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.828125</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3068783068783069</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,137 +1005,89 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>330</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L11">
+        <v>66</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>63</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K12">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L12">
+        <v>37</v>
+      </c>
+      <c r="M12">
+        <v>37</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11">
-        <v>0.795774647887324</v>
-      </c>
-      <c r="L11">
-        <v>113</v>
-      </c>
-      <c r="M11">
-        <v>113</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="C12">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>54</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>198</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L12">
-        <v>95</v>
-      </c>
-      <c r="M12">
-        <v>95</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1152815013404826</v>
-      </c>
-      <c r="C13">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>330</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.7659574468085106</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7641509433962265</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L14">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7125</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1234,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7125</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1260,12 +1203,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0.6702127659574468</v>
@@ -1291,16 +1234,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1312,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6422976501305483</v>
+        <v>0.5953002610966057</v>
       </c>
       <c r="L20">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M20">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1338,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1364,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5941176470588235</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5777777777777777</v>
+        <v>0.54</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1416,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5423728813559322</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L24">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M24">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5393258426966292</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1468,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4644351464435146</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L26">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>128</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4615384615384616</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4383561643835616</v>
+        <v>0.453125</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4375</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4153846153846154</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,12 +1541,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>0.3571428571428572</v>
@@ -1629,42 +1572,42 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.1220095693779904</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="L32">
         <v>51</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1201923076923077</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1676,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.06152125279642058</v>
+        <v>0.07158836689038031</v>
       </c>
       <c r="L34">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M34">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1702,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.05882352941176471</v>
+        <v>0.05438401775804662</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1728,137 +1671,111 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.05092592592592592</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.03369209171736079</v>
+        <v>0.03506311360448808</v>
       </c>
       <c r="L37">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N37">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.03233256351039261</v>
+        <v>0.02886836027713626</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.01484349790254921</v>
+        <v>0.01709677419354839</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M39">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N39">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40">
-        <v>0.007829627309740057</v>
-      </c>
-      <c r="L40">
-        <v>25</v>
-      </c>
-      <c r="M40">
-        <v>33</v>
-      </c>
-      <c r="N40">
-        <v>0.76</v>
-      </c>
-      <c r="O40">
-        <v>0.24</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3168</v>
+        <v>3047</v>
       </c>
     </row>
   </sheetData>
